--- a/TestData/DDT_DATA.xlsx
+++ b/TestData/DDT_DATA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nakhla\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test Automation Project\Nakhla_RestAssured_API_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD74A6A-AF76-476D-8C6F-BF4F645C96B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC5042D-AD9F-4B4E-9371-CBEA6D8FFD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
-  <si>
-    <t>Niamul@123</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="52">
   <si>
     <t>email</t>
   </si>
@@ -41,25 +38,151 @@
     <t>password</t>
   </si>
   <si>
-    <t>niamulshimul@gmail.com</t>
-  </si>
-  <si>
-    <t>niamulshimul</t>
-  </si>
-  <si>
-    <t>Testuser@114</t>
-  </si>
-  <si>
-    <t>testuser214@gmail.com</t>
-  </si>
-  <si>
-    <t>testuser214</t>
-  </si>
-  <si>
-    <t>testuser214gmail.com</t>
-  </si>
-  <si>
-    <t>testuser333</t>
+    <t>testuser401</t>
+  </si>
+  <si>
+    <t>testuser402</t>
+  </si>
+  <si>
+    <t>Testuser@402</t>
+  </si>
+  <si>
+    <t>testuser402gmail.com</t>
+  </si>
+  <si>
+    <t>testuser403</t>
+  </si>
+  <si>
+    <t>Testuser@403</t>
+  </si>
+  <si>
+    <t>testuser403gmail.com</t>
+  </si>
+  <si>
+    <t>testuser404gmail.com</t>
+  </si>
+  <si>
+    <t>testuser404</t>
+  </si>
+  <si>
+    <t>Testuser@404</t>
+  </si>
+  <si>
+    <t>Valid Data for user registration</t>
+  </si>
+  <si>
+    <t>User Registration With Invalid Email Data</t>
+  </si>
+  <si>
+    <t>Testuser@405</t>
+  </si>
+  <si>
+    <t>testuser405gmail.com</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>User Registration With UserName Less Then 3 Char</t>
+  </si>
+  <si>
+    <t>User Registration Without UserName</t>
+  </si>
+  <si>
+    <t>Testuser@406</t>
+  </si>
+  <si>
+    <t>testuser406gmail.com</t>
+  </si>
+  <si>
+    <t>User Registration With Duplicate UserName</t>
+  </si>
+  <si>
+    <t>Testuser@407</t>
+  </si>
+  <si>
+    <t>User Registration Password Less Than 6 Characters</t>
+  </si>
+  <si>
+    <t>testuser407gmail.com</t>
+  </si>
+  <si>
+    <t>testuser408gmail.com</t>
+  </si>
+  <si>
+    <t>testuser408</t>
+  </si>
+  <si>
+    <t>Tr@48</t>
+  </si>
+  <si>
+    <t>User Registration Password Without Contain Numbers</t>
+  </si>
+  <si>
+    <t>testuser409</t>
+  </si>
+  <si>
+    <t>testuser409gmail.com</t>
+  </si>
+  <si>
+    <t>Testuser@</t>
+  </si>
+  <si>
+    <t>User Registration Password Without Contain Special Characters</t>
+  </si>
+  <si>
+    <t>testuser410</t>
+  </si>
+  <si>
+    <t>testuser410gmail.com</t>
+  </si>
+  <si>
+    <t>Testuser410</t>
+  </si>
+  <si>
+    <t>User Registration Password Without Contain Upper Case Letters</t>
+  </si>
+  <si>
+    <t>testuser411gmail.com</t>
+  </si>
+  <si>
+    <t>testuser411</t>
+  </si>
+  <si>
+    <t>User Registration Without Password</t>
+  </si>
+  <si>
+    <t>testuser412</t>
+  </si>
+  <si>
+    <t>testuser412gmail.com</t>
+  </si>
+  <si>
+    <t>User Registration Password Getter Than 20 Characters</t>
+  </si>
+  <si>
+    <t>testuser413</t>
+  </si>
+  <si>
+    <t>testuser413gmail.com</t>
+  </si>
+  <si>
+    <t>Testuser@41323456789tyuio</t>
+  </si>
+  <si>
+    <t>login User</t>
+  </si>
+  <si>
+    <t>login User with wrong password</t>
+  </si>
+  <si>
+    <t>Testuser@4021</t>
+  </si>
+  <si>
+    <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>SL</t>
   </si>
 </sst>
 </file>
@@ -89,15 +212,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,14 +234,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -397,7 +559,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -409,29 +571,36 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -440,8 +609,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{D805F3EE-E4A9-4F07-83F8-CFDE854DE56B}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{7C732C01-CBD2-4F4C-ABC5-ABF7C3696387}"/>
+    <hyperlink ref="C2" r:id="rId1" display="Testuser@401" xr:uid="{BB4A3239-7FC2-4F5E-932D-77239B095AD5}"/>
+    <hyperlink ref="A2" r:id="rId2" display="testuser214@gmail.com" xr:uid="{E90FDC4A-16AB-4A21-B02A-F036AB81D614}"/>
+    <hyperlink ref="C3" r:id="rId3" display="Testuser@401" xr:uid="{BCA17BA8-C097-43CE-95DC-7CB2E5B135A1}"/>
+    <hyperlink ref="A3" r:id="rId4" display="testuser214@gmail.com" xr:uid="{28FC5871-EDFC-47E8-A6ED-72F5FCC82C8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -449,46 +620,220 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708BC844-F2BC-44F1-8CA1-8EB38D91F611}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.54296875" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Testuser@111" xr:uid="{B2D19F37-C237-4533-BC80-963759F45AE3}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{48949312-D3A3-485E-A56B-B3D8077F82EA}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{70AF0321-E91B-48C2-9F19-EA25B39546FD}"/>
+    <hyperlink ref="A2" r:id="rId2" display="testuser214@gmail.com" xr:uid="{17DC69C3-E2AF-4B1D-86BF-65C0DB668C5B}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{D144EF7D-6995-498A-A681-60FF33AC3086}"/>
+    <hyperlink ref="A3" r:id="rId4" display="testuser214@gmail.com" xr:uid="{26DBDC07-9AEE-4FF7-A509-8DBC1800D5F0}"/>
+    <hyperlink ref="C4" r:id="rId5" display="Testuser@404" xr:uid="{E47275B0-DB51-4EC0-AE43-0F59DF65FDB5}"/>
+    <hyperlink ref="A4" r:id="rId6" display="testuser214@gmail.com" xr:uid="{21CE6641-817A-4087-AD45-9ADBFABDE167}"/>
+    <hyperlink ref="C5" r:id="rId7" display="Testuser@404" xr:uid="{3F7F147A-F42B-4872-B30E-5E58D5D5F69A}"/>
+    <hyperlink ref="A5" r:id="rId8" display="testuser214@gmail.com" xr:uid="{08A52C38-D7A2-4630-B365-1303D5891FD4}"/>
+    <hyperlink ref="C6" r:id="rId9" display="Testuser@404" xr:uid="{84995668-936A-4577-BB02-6BA62D95D1FE}"/>
+    <hyperlink ref="A6" r:id="rId10" display="testuser214@gmail.com" xr:uid="{0C1B2926-9E38-4674-8610-00230E18416F}"/>
+    <hyperlink ref="C7" r:id="rId11" xr:uid="{30F7E53B-E286-4276-A46A-83D135D3853D}"/>
+    <hyperlink ref="A7" r:id="rId12" display="testuser214@gmail.com" xr:uid="{FC9E5824-6528-4051-84F3-BC8D9419EA73}"/>
+    <hyperlink ref="C8" r:id="rId13" xr:uid="{E01E00CB-EAE0-4B9A-A422-90170CC16033}"/>
+    <hyperlink ref="A8" r:id="rId14" display="testuser214@gmail.com" xr:uid="{1ED2A08E-0CC6-437F-903D-5A0C9BD5FC47}"/>
+    <hyperlink ref="C9" r:id="rId15" display="Testuser@" xr:uid="{989E5B7A-67B7-4DCF-B5CE-EADF91720A5E}"/>
+    <hyperlink ref="A9" r:id="rId16" display="testuser214@gmail.com" xr:uid="{170C1013-ACC4-4232-87DC-F3DF560F5D7A}"/>
+    <hyperlink ref="C10" r:id="rId17" display="Testuser@" xr:uid="{800B835B-C193-4661-BBC9-EC06F9E09318}"/>
+    <hyperlink ref="A10" r:id="rId18" display="testuser214@gmail.com" xr:uid="{9D75BF44-2D71-436C-A905-EF12781F5947}"/>
+    <hyperlink ref="A11" r:id="rId19" display="testuser214@gmail.com" xr:uid="{E07C36A9-365E-43FE-ACC8-C611482A2C1F}"/>
+    <hyperlink ref="A12" r:id="rId20" display="testuser214@gmail.com" xr:uid="{992C8874-75E7-4B90-9B01-6B2C1C68279F}"/>
+    <hyperlink ref="C12" r:id="rId21" xr:uid="{FB446389-87D6-4648-828B-24FFBE8D8808}"/>
+    <hyperlink ref="C14" r:id="rId22" xr:uid="{58988A4E-94EB-4C72-896D-732B5B15EDD5}"/>
+    <hyperlink ref="A14" r:id="rId23" display="testuser214@gmail.com" xr:uid="{7C23F283-186D-47C3-8823-CAF55AB7CB42}"/>
+    <hyperlink ref="C13" r:id="rId24" xr:uid="{F14D4BD9-D006-4E08-BABF-1E81268593DC}"/>
+    <hyperlink ref="A13" r:id="rId25" display="testuser214@gmail.com" xr:uid="{C439E663-57F2-404C-BBD6-DE07ECF5CEAE}"/>
+    <hyperlink ref="A15" r:id="rId26" display="testuser214@gmail.com" xr:uid="{8257771B-2130-4CB5-B8C3-AA50F08FCF30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -496,45 +841,294 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D24FA0-978A-41D3-870E-329CCB9737FB}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.90625" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Testuser@111" xr:uid="{91C84571-E346-4814-ADCD-CA54AEC195C9}"/>
-    <hyperlink ref="A2" r:id="rId2" display="testuser214@gmail.com" xr:uid="{92C369C3-B2A6-44BF-A67D-DCA9EE1C904A}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{D9662F33-29AE-4666-868F-5AA852D11A51}"/>
+    <hyperlink ref="B2" r:id="rId2" display="testuser214@gmail.com" xr:uid="{7245E045-0E70-4A60-9F72-FF8590B63576}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{14A49318-C554-48CF-B933-EB9EFAF898C8}"/>
+    <hyperlink ref="B3" r:id="rId4" display="testuser214@gmail.com" xr:uid="{193266EA-EC1A-412B-99E9-50ECC3C62E17}"/>
+    <hyperlink ref="D4" r:id="rId5" display="Testuser@404" xr:uid="{48F25346-1627-4A35-9FF5-DFC7BC73652B}"/>
+    <hyperlink ref="B4" r:id="rId6" display="testuser214@gmail.com" xr:uid="{9706FBBA-579A-4B8A-B1A3-FD24CC335655}"/>
+    <hyperlink ref="D5" r:id="rId7" display="Testuser@404" xr:uid="{B1FDDE8A-C140-4098-AF59-2C54E874DB29}"/>
+    <hyperlink ref="B5" r:id="rId8" display="testuser214@gmail.com" xr:uid="{70750F54-E442-4327-999D-940D922C0ECF}"/>
+    <hyperlink ref="D6" r:id="rId9" display="Testuser@404" xr:uid="{7B8FE901-57E0-43C6-B759-0F2C0A678A86}"/>
+    <hyperlink ref="B6" r:id="rId10" display="testuser214@gmail.com" xr:uid="{C52BA6FB-4C88-4F48-ABB5-AEAB9CE3B8A7}"/>
+    <hyperlink ref="D7" r:id="rId11" xr:uid="{E581C084-3410-431F-882F-A79931EE664D}"/>
+    <hyperlink ref="B7" r:id="rId12" display="testuser214@gmail.com" xr:uid="{2B1386D0-E9ED-4E9D-86D5-C09220A3D03B}"/>
+    <hyperlink ref="D8" r:id="rId13" xr:uid="{8A397034-FF9E-4AE9-AED4-C776406C8960}"/>
+    <hyperlink ref="B8" r:id="rId14" display="testuser214@gmail.com" xr:uid="{9A0B9B44-06EA-491D-B171-F3A8E2C7B36E}"/>
+    <hyperlink ref="D9" r:id="rId15" display="Testuser@" xr:uid="{3EA5B0DD-14DB-42BC-BAF5-5553A1EBE3F0}"/>
+    <hyperlink ref="B9" r:id="rId16" display="testuser214@gmail.com" xr:uid="{5B0133E9-4DB4-418D-AF02-A76213F6D7F0}"/>
+    <hyperlink ref="D10" r:id="rId17" display="Testuser@" xr:uid="{E39FC1AC-1AD2-4BFE-9F1F-CBEEC9143519}"/>
+    <hyperlink ref="B10" r:id="rId18" display="testuser214@gmail.com" xr:uid="{DA8CE2CA-EE09-41E1-9E99-440AAF7AC0E1}"/>
+    <hyperlink ref="B11" r:id="rId19" display="testuser214@gmail.com" xr:uid="{D64CABD7-35E5-4474-A95A-FB981B41C47B}"/>
+    <hyperlink ref="B12" r:id="rId20" display="testuser214@gmail.com" xr:uid="{B42F4734-E121-4F41-BF5F-BAF8AA0EEB3B}"/>
+    <hyperlink ref="D12" r:id="rId21" xr:uid="{A89C4007-3EB4-401C-B9F3-447FF5FFE589}"/>
+    <hyperlink ref="D14" r:id="rId22" xr:uid="{5AF484DC-6B7D-4B12-A247-5CDE47537F9E}"/>
+    <hyperlink ref="B14" r:id="rId23" display="testuser214@gmail.com" xr:uid="{1B4DDA07-1142-41EB-93A8-F846D5A4CCBC}"/>
+    <hyperlink ref="D13" r:id="rId24" xr:uid="{83788E67-074C-478F-A547-22DB8CDA5525}"/>
+    <hyperlink ref="B13" r:id="rId25" display="testuser214@gmail.com" xr:uid="{7A276B9E-6EBE-413A-919A-A0AA57D34798}"/>
+    <hyperlink ref="B15" r:id="rId26" display="testuser214@gmail.com" xr:uid="{FD428863-1387-485C-97CD-A1D62B742E77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
